--- a/data/stocklist.xlsx
+++ b/data/stocklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rja/Documents/Coding/film-photo-archive-manager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383BCAAB-6FA9-6643-98F9-7EA99AC996BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870FA7EE-27B3-6445-A629-03766E4637C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="760" windowWidth="14700" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
   <si>
     <t>stk</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>ORTO25</t>
+  </si>
+  <si>
+    <t>KEY_ID</t>
   </si>
 </sst>
 </file>
@@ -628,710 +634,773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4">
+        <v>400</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>320</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>800</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>160</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
-        <v>400</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>400</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>125</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
-        <v>400</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>400</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D14">
-        <v>400</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="E14">
+        <v>400</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>200</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="F16" t="s">
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>400</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="E18">
+        <v>400</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="D19">
-        <v>400</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="E19">
+        <v>400</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>800</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="D21">
-        <v>400</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>400</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>100</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>41</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1340,190 +1409,208 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="D23">
-        <v>400</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23">
+        <v>400</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>200</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="F24" t="s">
+        <v>17</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>100</v>
       </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="F25" t="s">
+        <v>17</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>47</v>
       </c>
-      <c r="D26">
-        <v>400</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="E26">
+        <v>400</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
       <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>49</v>
       </c>
-      <c r="D27">
-        <v>400</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>400</v>
+      </c>
+      <c r="F27" t="s">
         <v>13</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="D28">
-        <v>400</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28">
+        <v>400</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1532,414 +1619,453 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="D29">
-        <v>400</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29">
+        <v>400</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>100</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>320</v>
       </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="F31" t="s">
+        <v>17</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>200</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>13</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
       <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>21</v>
       </c>
-      <c r="D33">
-        <v>400</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="E33">
+        <v>400</v>
+      </c>
+      <c r="F33" t="s">
         <v>13</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
       <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
         <v>57</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>800</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
       <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
         <v>60</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>125</v>
       </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
+      <c r="F35" t="s">
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>78</v>
       </c>
       <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="D36">
-        <v>400</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="E36">
+        <v>400</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
       <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="D37">
-        <v>400</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="E37">
+        <v>400</v>
+      </c>
+      <c r="F37" t="s">
         <v>13</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>79</v>
       </c>
       <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>200</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>13</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="D39">
-        <v>400</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>400</v>
+      </c>
+      <c r="F39" t="s">
         <v>13</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>81</v>
       </c>
       <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="D40">
-        <v>400</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="E40">
+        <v>400</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
       <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="D41">
-        <v>400</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="E41">
+        <v>400</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1948,166 +2074,184 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>83</v>
       </c>
       <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="D42">
-        <v>400</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="E42">
+        <v>400</v>
+      </c>
+      <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
         <v>55</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="D43">
-        <v>400</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>400</v>
+      </c>
+      <c r="F43" t="s">
         <v>13</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
       <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>100</v>
       </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+      <c r="F44" t="s">
+        <v>17</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
       <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>88</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>25</v>
       </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
+      <c r="F45" t="s">
+        <v>17</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>86</v>
       </c>
       <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
         <v>69</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>39</v>
       </c>
-      <c r="D46">
-        <v>400</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="E46">
+        <v>400</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
         <v>0</v>
       </c>
     </row>

--- a/data/stocklist.xlsx
+++ b/data/stocklist.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rja/Documents/Coding/film-photo-archive-manager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870FA7EE-27B3-6445-A629-03766E4637C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE983E8-6456-D94A-A9CD-C17998C079E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="760" windowWidth="14700" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="139">
+  <si>
+    <t>KEY_ID</t>
+  </si>
   <si>
     <t>stk</t>
   </si>
@@ -52,6 +55,12 @@
     <t>isSlide</t>
   </si>
   <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>EK100</t>
   </si>
   <si>
@@ -64,248 +73,389 @@
     <t>C41</t>
   </si>
   <si>
+    <t>251, 150, 203, 255</t>
+  </si>
+  <si>
     <t>G200</t>
   </si>
   <si>
+    <t>Gold 200</t>
+  </si>
+  <si>
+    <t>233, 132, 233, 255</t>
+  </si>
+  <si>
     <t>HP5</t>
   </si>
   <si>
+    <t>HP5 400</t>
+  </si>
+  <si>
     <t>Ilford</t>
   </si>
   <si>
     <t>BNW</t>
   </si>
   <si>
+    <t>232, 252, 237, 255</t>
+  </si>
+  <si>
     <t>ARS320</t>
   </si>
   <si>
+    <t>Ars-Imago 320</t>
+  </si>
+  <si>
     <t>Ars-Imago</t>
   </si>
   <si>
+    <t>223, 244, 254, 255</t>
+  </si>
+  <si>
     <t>S400</t>
   </si>
   <si>
+    <t>Superia 400</t>
+  </si>
+  <si>
     <t>Fujifilm</t>
   </si>
   <si>
+    <t>238, 144, 227, 255</t>
+  </si>
+  <si>
     <t>P800</t>
   </si>
   <si>
+    <t>Portra 800</t>
+  </si>
+  <si>
+    <t>253, 142, 228, 255</t>
+  </si>
+  <si>
     <t>P400</t>
   </si>
   <si>
+    <t>Portra 400</t>
+  </si>
+  <si>
+    <t>246, 104, 139, 255</t>
+  </si>
+  <si>
     <t>P160</t>
   </si>
   <si>
+    <t>Portra 160</t>
+  </si>
+  <si>
+    <t>223, 218, 177, 255</t>
+  </si>
+  <si>
     <t>U400</t>
   </si>
   <si>
+    <t>Ultramax 400</t>
+  </si>
+  <si>
+    <t>219, 189, 228, 255</t>
+  </si>
+  <si>
     <t>C400D</t>
   </si>
   <si>
+    <t>CinesTill 400D</t>
+  </si>
+  <si>
     <t>CineStill</t>
   </si>
   <si>
+    <t>200, 178, 130, 255</t>
+  </si>
+  <si>
     <t>FP4</t>
   </si>
   <si>
+    <t>FP4 125</t>
+  </si>
+  <si>
+    <t>222, 206, 209, 255</t>
+  </si>
+  <si>
     <t>XP2</t>
   </si>
   <si>
+    <t>XP2 400</t>
+  </si>
+  <si>
+    <t>229, 234, 253, 255</t>
+  </si>
+  <si>
     <t>K400</t>
   </si>
   <si>
+    <t>Kentmere 400</t>
+  </si>
+  <si>
     <t>Harman</t>
   </si>
   <si>
+    <t>240, 240, 242, 255</t>
+  </si>
+  <si>
     <t>K200</t>
   </si>
   <si>
+    <t>Kentmere 200</t>
+  </si>
+  <si>
+    <t>209, 237, 206, 255</t>
+  </si>
+  <si>
     <t>K100</t>
   </si>
   <si>
+    <t>Kentmere 100</t>
+  </si>
+  <si>
+    <t>224, 235, 251, 255</t>
+  </si>
+  <si>
     <t>TM100</t>
   </si>
   <si>
+    <t>TMAX 100</t>
+  </si>
+  <si>
+    <t>226, 235, 222, 255</t>
+  </si>
+  <si>
     <t>TM400</t>
   </si>
   <si>
+    <t>TMAX 400</t>
+  </si>
+  <si>
+    <t>205, 233, 219, 255</t>
+  </si>
+  <si>
     <t>TX400</t>
   </si>
   <si>
+    <t>TRIX 400</t>
+  </si>
+  <si>
+    <t>213, 226, 247, 255</t>
+  </si>
+  <si>
     <t>C800T</t>
   </si>
   <si>
+    <t>CineStill 800T</t>
+  </si>
+  <si>
+    <t>228, 230, 188, 255</t>
+  </si>
+  <si>
     <t>APX400</t>
   </si>
   <si>
+    <t>Agfa APX 400</t>
+  </si>
+  <si>
     <t>AgfaPhoto</t>
   </si>
   <si>
+    <t>211, 214, 247, 255</t>
+  </si>
+  <si>
     <t>E100</t>
   </si>
   <si>
+    <t>Ektachrome 100</t>
+  </si>
+  <si>
     <t>E6</t>
   </si>
   <si>
+    <t>255, 255, 255, 255</t>
+  </si>
+  <si>
     <t>F400</t>
   </si>
   <si>
+    <t>Fomapan 400</t>
+  </si>
+  <si>
     <t>Foma</t>
   </si>
   <si>
+    <t>224, 202, 245, 255</t>
+  </si>
+  <si>
     <t>F200</t>
   </si>
   <si>
+    <t>Fomapan 200</t>
+  </si>
+  <si>
+    <t>234, 250, 213, 255</t>
+  </si>
+  <si>
     <t>F100</t>
   </si>
   <si>
+    <t>Fomapan 100</t>
+  </si>
+  <si>
+    <t>203, 247, 230, 255</t>
+  </si>
+  <si>
     <t>RR400S</t>
   </si>
   <si>
+    <t>Rollei Retro 400S</t>
+  </si>
+  <si>
     <t>Rollei</t>
   </si>
   <si>
+    <t>228, 251, 225, 255</t>
+  </si>
+  <si>
     <t>CA400</t>
   </si>
   <si>
+    <t>Candido 400</t>
+  </si>
+  <si>
     <t>Candido</t>
   </si>
   <si>
+    <t>216, 155, 147, 255</t>
+  </si>
+  <si>
     <t>IR400</t>
   </si>
   <si>
-    <t>Gold 200</t>
-  </si>
-  <si>
-    <t>HP5 400</t>
-  </si>
-  <si>
-    <t>Ars-Imago 320</t>
-  </si>
-  <si>
-    <t>Superia 400</t>
-  </si>
-  <si>
-    <t>Portra 400</t>
-  </si>
-  <si>
-    <t>Portra 160</t>
-  </si>
-  <si>
-    <t>Portra 800</t>
-  </si>
-  <si>
-    <t>Ultramax 400</t>
-  </si>
-  <si>
-    <t>CinesTill 400D</t>
-  </si>
-  <si>
-    <t>FP4 125</t>
-  </si>
-  <si>
-    <t>XP2 400</t>
-  </si>
-  <si>
-    <t>Kentmere 400</t>
-  </si>
-  <si>
-    <t>Kentmere 200</t>
-  </si>
-  <si>
-    <t>Kentmere 100</t>
-  </si>
-  <si>
-    <t>TMAX 100</t>
-  </si>
-  <si>
-    <t>TMAX 400</t>
-  </si>
-  <si>
-    <t>TRIX 400</t>
-  </si>
-  <si>
-    <t>CineStill 800T</t>
-  </si>
-  <si>
-    <t>Agfa APX 400</t>
-  </si>
-  <si>
-    <t>Ektachrome 100</t>
-  </si>
-  <si>
-    <t>Fomapan 400</t>
-  </si>
-  <si>
-    <t>Fomapan 200</t>
-  </si>
-  <si>
-    <t>Fomapan 100</t>
-  </si>
-  <si>
-    <t>Rollei Retro 400S</t>
-  </si>
-  <si>
-    <t>Candido 400</t>
-  </si>
-  <si>
     <t>Rollei IR400</t>
   </si>
   <si>
+    <t>232, 203, 237, 255</t>
+  </si>
+  <si>
+    <t>235, 241, 201, 255</t>
+  </si>
+  <si>
+    <t>244, 166, 129, 255</t>
+  </si>
+  <si>
     <t>Ars Imago 320</t>
   </si>
   <si>
+    <t>242, 203, 215, 255</t>
+  </si>
+  <si>
+    <t>233, 210, 101, 255</t>
+  </si>
+  <si>
+    <t>212, 213, 126, 255</t>
+  </si>
+  <si>
+    <t>243, 168, 234, 255</t>
+  </si>
+  <si>
+    <t>242, 251, 209, 255</t>
+  </si>
+  <si>
     <t>HP5+ 400</t>
   </si>
   <si>
+    <t>215, 229, 217, 255</t>
+  </si>
+  <si>
+    <t>237, 108, 223, 255</t>
+  </si>
+  <si>
     <t>gold 200</t>
   </si>
   <si>
+    <t>215, 210, 122, 255</t>
+  </si>
+  <si>
     <t>UM400</t>
   </si>
   <si>
+    <t>222, 148, 155, 255</t>
+  </si>
+  <si>
     <t>Kentemere 400</t>
   </si>
   <si>
+    <t>234, 204, 206, 255</t>
+  </si>
+  <si>
     <t>IR 400</t>
   </si>
   <si>
+    <t>241, 212, 229, 255</t>
+  </si>
+  <si>
     <t>u400</t>
   </si>
   <si>
+    <t>212, 136, 164, 255</t>
+  </si>
+  <si>
+    <t>234, 238, 163, 255</t>
+  </si>
+  <si>
     <t>Tmax100 (exp)</t>
   </si>
   <si>
+    <t>248, 250, 224, 255</t>
+  </si>
+  <si>
     <t>Ortho 25 (exp)</t>
   </si>
   <si>
+    <t>ORTO25</t>
+  </si>
+  <si>
+    <t>Ortho 25</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>245, 244, 253, 255</t>
+  </si>
+  <si>
     <t>Agfa 400</t>
   </si>
   <si>
-    <t>Ortho 25</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>ORTO25</t>
-  </si>
-  <si>
-    <t>KEY_ID</t>
+    <t>200, 216, 215, 255</t>
+  </si>
+  <si>
+    <t>fonts/Impact Label Reversed.ttf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,7 +466,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -324,12 +474,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,9 +516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -388,7 +556,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -422,7 +590,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -457,10 +624,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,70 +800,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -714,25 +884,31 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -749,25 +925,31 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>400</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -784,25 +966,31 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -819,25 +1007,31 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>400</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -854,25 +1048,31 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>800</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -889,25 +1089,31 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>400</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -924,25 +1130,31 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -959,25 +1171,31 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>400</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -994,25 +1212,31 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>400</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1029,25 +1253,31 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1064,25 +1294,31 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>400</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1099,25 +1335,31 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>400</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1134,25 +1376,31 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1169,25 +1417,31 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1204,25 +1458,31 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1239,25 +1499,31 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>400</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1274,25 +1540,31 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1309,25 +1581,31 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>800</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1344,25 +1622,31 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>400</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1379,25 +1663,31 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1414,25 +1704,31 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E23">
         <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1449,25 +1745,31 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E24">
         <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1484,25 +1786,31 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E25">
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1519,25 +1827,31 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>400</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1554,25 +1868,31 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="E27">
         <v>400</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1589,25 +1909,31 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E28">
         <v>400</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1624,25 +1950,31 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>400</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1659,25 +1991,31 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1694,25 +2032,31 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>320</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1729,25 +2073,31 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1764,25 +2114,31 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>400</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1799,25 +2155,31 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>800</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1834,25 +2196,31 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1869,25 +2237,31 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>400</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1904,25 +2278,31 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>400</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1939,25 +2319,31 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1974,25 +2360,31 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>400</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2009,25 +2401,31 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>400</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2044,25 +2442,31 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E41">
         <v>400</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2079,25 +2483,31 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>138</v>
+      </c>
+      <c r="M41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>400</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2114,25 +2524,31 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>138</v>
+      </c>
+      <c r="M42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>400</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2149,25 +2565,31 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2184,25 +2606,31 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E45">
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2219,25 +2647,31 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>400</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2254,9 +2688,15 @@
       <c r="K46">
         <v>0</v>
       </c>
+      <c r="L46" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/stocklist.xlsx
+++ b/data/stocklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rja/Documents/Coding/film-photo-archive-manager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE983E8-6456-D94A-A9CD-C17998C079E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86417C65-2A7B-204A-8F52-678C7FDFC92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="141">
   <si>
     <t>KEY_ID</t>
   </si>
@@ -437,6 +437,12 @@
   </si>
   <si>
     <t>fonts/Impact Label Reversed.ttf</t>
+  </si>
+  <si>
+    <t>CP200</t>
+  </si>
+  <si>
+    <t>ColorPlus 200</t>
   </si>
 </sst>
 </file>
@@ -800,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2695,6 +2701,47 @@
         <v>137</v>
       </c>
     </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>200</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>138</v>
+      </c>
+      <c r="M47" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
